--- a/data/Datos AlohAndes0/miembros/DuenosApartamentos.xlsx
+++ b/data/Datos AlohAndes0/miembros/DuenosApartamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianoliveros/Desktop/Sistemas Transaccionales/proyecto alhoanades/ProyectoAlhoandes/AlohAndes/data/Datos AlohAndes0/miembros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02B6B9-99FD-804A-A5FA-48E74493720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B2638-A403-C94B-B662-18120AC23A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17660" yWindow="460" windowWidth="11920" windowHeight="16700" xr2:uid="{B370238D-D753-6846-90D3-96F97AF9B051}"/>
   </bookViews>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AECEFE4-B3A3-8942-983E-1F93C2C10AD4}">
   <dimension ref="A1:D2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1977" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C1982" sqref="C1982"/>
+    <sheetView tabSelected="1" topLeftCell="A1972" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B1986" sqref="B1986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
